--- a/Server Details.xlsx
+++ b/Server Details.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
   <si>
     <t>Server ip address</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>vvvv</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2287,7 +2290,9 @@
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
+      <c r="F40" s="50" t="s">
+        <v>184</v>
+      </c>
       <c r="G40" s="50"/>
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
